--- a/doc/KDTreeComparison.xlsx
+++ b/doc/KDTreeComparison.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Archiv\3D\_PointCloudScanner\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Archiv\3D\PointClouds\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Brute Force</t>
   </si>
@@ -45,6 +45,15 @@
   </si>
   <si>
     <t>n*ln(n)</t>
+  </si>
+  <si>
+    <t>Points</t>
+  </si>
+  <si>
+    <t>EricRegina</t>
+  </si>
+  <si>
+    <t>EricRegina parallel</t>
   </si>
 </sst>
 </file>
@@ -60,15 +69,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -76,13 +91,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -363,10 +395,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F12"/>
+  <dimension ref="A3:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G13"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -375,172 +407,201 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B3">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="3">
         <v>1000</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>10000</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>100000</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
         <v>1000000</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="3">
         <v>100000000</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="1">
         <v>84</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="1">
         <v>8026</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="1">
         <v>815000</v>
       </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="1">
         <v>20</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="1">
         <v>1840</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="1">
         <v>180737</v>
       </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="1">
         <v>7</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>80.5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="1">
         <v>883</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" s="2">
         <v>17456</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6" s="2">
         <v>284973</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="A7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="1">
         <v>2</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="1">
         <v>19</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="1">
         <v>206</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="1">
         <v>3652</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="1">
         <v>46386</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="1">
         <v>1</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="1">
         <v>13</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="1">
         <v>148</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="1">
         <v>1625</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="1">
         <v>23741</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="A9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="1">
         <v>1E-3</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="1">
         <v>5.5</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="1">
         <v>34</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="1">
         <v>425</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>11330</v>
       </c>
     </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
+        <v>148279</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B11">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13">
         <f>B4/B3/B3</f>
         <v>8.4000000000000009E-5</v>
       </c>
-      <c r="C11">
+      <c r="C13">
         <f>C4/C3/C3</f>
         <v>8.0259999999999994E-5</v>
       </c>
-      <c r="D11">
+      <c r="D13">
         <f>D4/D3/D3</f>
         <v>8.1500000000000002E-5</v>
       </c>
-      <c r="E11">
+      <c r="E13">
         <v>8.1500000000000002E-5</v>
       </c>
-      <c r="F11">
+      <c r="F13">
         <v>8.1500000000000002E-5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>6</v>
       </c>
-      <c r="B12">
-        <f>B11*LN(B3)*B3</f>
+      <c r="B14">
+        <f>B13*LN(B3)*B3</f>
         <v>0.58025144343449953</v>
       </c>
-      <c r="C12">
-        <f>C11*LN(C3)*C3</f>
+      <c r="C14">
+        <f>C13*LN(C3)*C3</f>
         <v>7.3922191825480841</v>
       </c>
-      <c r="D12">
-        <f>D11*LN(D3)*D3</f>
+      <c r="D14">
+        <f>D13*LN(D3)*D3</f>
         <v>93.83034253950737</v>
       </c>
-      <c r="E12">
-        <f>E11*LN(E3)*E3</f>
+      <c r="E14">
+        <f>E13*LN(E3)*E3</f>
         <v>1125.9641104740883</v>
       </c>
-      <c r="F12">
-        <f>F11*LN(F3)*F3</f>
+      <c r="F14">
+        <f>F13*LN(F3)*F3</f>
         <v>150128.54806321181</v>
       </c>
     </row>
